--- a/code/results_MH_battle_royale/results_cec2017_10.xlsx
+++ b/code/results_MH_battle_royale/results_cec2017_10.xlsx
@@ -603,94 +603,94 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6673161885.25</v>
+        <v>6594946000</v>
       </c>
       <c r="D2" t="n">
-        <v>1027672460154667</v>
+        <v>1375454000000000</v>
       </c>
       <c r="E2" t="n">
-        <v>32143.9270422535</v>
+        <v>34480.81</v>
       </c>
       <c r="F2" t="n">
-        <v>442.7312341791045</v>
+        <v>356.9937</v>
       </c>
       <c r="G2" t="n">
-        <v>95.27834030769236</v>
+        <v>129.2497</v>
       </c>
       <c r="H2" t="n">
-        <v>69.56510677966104</v>
+        <v>70.62432</v>
       </c>
       <c r="I2" t="n">
-        <v>527.2578607142863</v>
+        <v>468.5021</v>
       </c>
       <c r="J2" t="n">
-        <v>99.48298588235292</v>
+        <v>104.2883</v>
       </c>
       <c r="K2" t="n">
-        <v>1796.789064583334</v>
+        <v>1940.725</v>
       </c>
       <c r="L2" t="n">
-        <v>1591.856555555554</v>
+        <v>1816.782</v>
       </c>
       <c r="M2" t="n">
-        <v>3785.396822222222</v>
+        <v>468.4259</v>
       </c>
       <c r="N2" t="n">
-        <v>31570529.275</v>
+        <v>26118010</v>
       </c>
       <c r="O2" t="n">
-        <v>36749.91620930233</v>
+        <v>29537.19</v>
       </c>
       <c r="P2" t="n">
-        <v>312.2400209302325</v>
+        <v>1334.131</v>
       </c>
       <c r="Q2" t="n">
-        <v>2207.372556410257</v>
+        <v>5653.784</v>
       </c>
       <c r="R2" t="n">
-        <v>745.78788974359</v>
+        <v>884.9585</v>
       </c>
       <c r="S2" t="n">
-        <v>392.2618205128203</v>
+        <v>191.152</v>
       </c>
       <c r="T2" t="n">
-        <v>2076139.443769231</v>
+        <v>8730.846</v>
       </c>
       <c r="U2" t="n">
-        <v>7499.453333333333</v>
+        <v>20994.65</v>
       </c>
       <c r="V2" t="n">
-        <v>266.5188270270269</v>
+        <v>407.5216</v>
       </c>
       <c r="W2" t="n">
-        <v>219.3389702702704</v>
+        <v>294.8632</v>
       </c>
       <c r="X2" t="n">
-        <v>1256.131532432433</v>
+        <v>716.8356</v>
       </c>
       <c r="Y2" t="n">
-        <v>582.3439162162161</v>
+        <v>766.0724</v>
       </c>
       <c r="Z2" t="n">
-        <v>504.0751162162163</v>
+        <v>586.8827</v>
       </c>
       <c r="AA2" t="n">
-        <v>833.6949162162161</v>
+        <v>1206.172</v>
       </c>
       <c r="AB2" t="n">
-        <v>1638.691083333333</v>
+        <v>1285.865</v>
       </c>
       <c r="AC2" t="n">
-        <v>604.909413888889</v>
+        <v>534.7671</v>
       </c>
       <c r="AD2" t="n">
-        <v>830.3875166666668</v>
+        <v>631.0674</v>
       </c>
       <c r="AE2" t="n">
-        <v>694.0068388888885</v>
+        <v>979.4261</v>
       </c>
       <c r="AF2" t="n">
-        <v>6771550.15</v>
+        <v>6555114</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
@@ -704,94 +704,94 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2897686391.125</v>
+        <v>3899972000</v>
       </c>
       <c r="D3" t="n">
-        <v>1000230375810272</v>
+        <v>1375454000000000</v>
       </c>
       <c r="E3" t="n">
-        <v>28916.19971830985</v>
+        <v>21998.06</v>
       </c>
       <c r="F3" t="n">
-        <v>244.6572435223881</v>
+        <v>356.9937</v>
       </c>
       <c r="G3" t="n">
-        <v>81.46086874999993</v>
+        <v>129.2497</v>
       </c>
       <c r="H3" t="n">
-        <v>63.50904293103449</v>
+        <v>70.62432</v>
       </c>
       <c r="I3" t="n">
-        <v>504.2621250000003</v>
+        <v>468.5021</v>
       </c>
       <c r="J3" t="n">
-        <v>86.7341535294118</v>
+        <v>104.2883</v>
       </c>
       <c r="K3" t="n">
-        <v>1563.718383333333</v>
+        <v>1940.725</v>
       </c>
       <c r="L3" t="n">
-        <v>1483.690022222222</v>
+        <v>1816.782</v>
       </c>
       <c r="M3" t="n">
-        <v>2026.009711111112</v>
+        <v>468.4259</v>
       </c>
       <c r="N3" t="n">
-        <v>3786169.079545455</v>
+        <v>26118010</v>
       </c>
       <c r="O3" t="n">
-        <v>3999.093860465117</v>
+        <v>29537.19</v>
       </c>
       <c r="P3" t="n">
-        <v>253.3295790697675</v>
+        <v>407.6384</v>
       </c>
       <c r="Q3" t="n">
-        <v>741.7997641025638</v>
+        <v>3423.178</v>
       </c>
       <c r="R3" t="n">
-        <v>724.682612820513</v>
+        <v>617.779</v>
       </c>
       <c r="S3" t="n">
-        <v>342.510665897436</v>
+        <v>131.5794</v>
       </c>
       <c r="T3" t="n">
-        <v>5322.477358974357</v>
+        <v>8730.846</v>
       </c>
       <c r="U3" t="n">
-        <v>6382.410025641025</v>
+        <v>20994.65</v>
       </c>
       <c r="V3" t="n">
-        <v>261.9886486486485</v>
+        <v>407.5216</v>
       </c>
       <c r="W3" t="n">
-        <v>210.1240378378378</v>
+        <v>234.5098</v>
       </c>
       <c r="X3" t="n">
-        <v>887.3118378378374</v>
+        <v>716.8356</v>
       </c>
       <c r="Y3" t="n">
-        <v>571.5245648648649</v>
+        <v>766.0724</v>
       </c>
       <c r="Z3" t="n">
-        <v>463.6493513513513</v>
+        <v>441.1193</v>
       </c>
       <c r="AA3" t="n">
-        <v>600.3396216216219</v>
+        <v>933.4082000000001</v>
       </c>
       <c r="AB3" t="n">
-        <v>1410.952222222223</v>
+        <v>740.0843</v>
       </c>
       <c r="AC3" t="n">
-        <v>578.1092472222223</v>
+        <v>534.7671</v>
       </c>
       <c r="AD3" t="n">
-        <v>673.3550472222225</v>
+        <v>631.0674</v>
       </c>
       <c r="AE3" t="n">
-        <v>680.7737638888887</v>
+        <v>682.9308</v>
       </c>
       <c r="AF3" t="n">
-        <v>2067921.172222222</v>
+        <v>6555114</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
@@ -805,94 +805,94 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1520803086.5</v>
+        <v>215759800</v>
       </c>
       <c r="D4" t="n">
-        <v>998270455810272</v>
+        <v>1375454000000000</v>
       </c>
       <c r="E4" t="n">
-        <v>26601.41830985917</v>
+        <v>21998.06</v>
       </c>
       <c r="F4" t="n">
-        <v>151.1981118059701</v>
+        <v>81.90392</v>
       </c>
       <c r="G4" t="n">
-        <v>79.70473609374993</v>
+        <v>109.7765</v>
       </c>
       <c r="H4" t="n">
-        <v>61.28670293103449</v>
+        <v>66.72122</v>
       </c>
       <c r="I4" t="n">
-        <v>496.2616178571431</v>
+        <v>451.5591000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>83.54434627450982</v>
+        <v>84.55213999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>1493.379814583333</v>
+        <v>1777.774</v>
       </c>
       <c r="L4" t="n">
-        <v>1375.884591111111</v>
+        <v>1609.25</v>
       </c>
       <c r="M4" t="n">
-        <v>853.8866666666667</v>
+        <v>199.9515</v>
       </c>
       <c r="N4" t="n">
-        <v>1731299.634090909</v>
+        <v>1756881</v>
       </c>
       <c r="O4" t="n">
-        <v>1872.718837209303</v>
+        <v>3406.246</v>
       </c>
       <c r="P4" t="n">
-        <v>195.4993976190476</v>
+        <v>378.4749</v>
       </c>
       <c r="Q4" t="n">
-        <v>739.1379333333334</v>
+        <v>3423.178</v>
       </c>
       <c r="R4" t="n">
-        <v>687.7113564102566</v>
+        <v>555.5594</v>
       </c>
       <c r="S4" t="n">
-        <v>310.0947992307692</v>
+        <v>131.5794</v>
       </c>
       <c r="T4" t="n">
-        <v>3438.545102564105</v>
+        <v>5672.502</v>
       </c>
       <c r="U4" t="n">
-        <v>6380.119538461538</v>
+        <v>19953.85</v>
       </c>
       <c r="V4" t="n">
-        <v>261.5803243243241</v>
+        <v>399.0759</v>
       </c>
       <c r="W4" t="n">
-        <v>196.7829864864865</v>
+        <v>234.5098</v>
       </c>
       <c r="X4" t="n">
-        <v>709.3103918918915</v>
+        <v>304.7328</v>
       </c>
       <c r="Y4" t="n">
-        <v>565.4801864864864</v>
+        <v>753.3261</v>
       </c>
       <c r="Z4" t="n">
-        <v>384.395291891892</v>
+        <v>384.113</v>
       </c>
       <c r="AA4" t="n">
-        <v>508.0035054054053</v>
+        <v>739.4453</v>
       </c>
       <c r="AB4" t="n">
-        <v>1337.969733333334</v>
+        <v>740.0843</v>
       </c>
       <c r="AC4" t="n">
-        <v>572.6626083333335</v>
+        <v>521.7133</v>
       </c>
       <c r="AD4" t="n">
-        <v>592.3933944444443</v>
+        <v>507.6395000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>646.5669388888889</v>
+        <v>682.9308</v>
       </c>
       <c r="AF4" t="n">
-        <v>1866954.316666667</v>
+        <v>5637700</v>
       </c>
       <c r="AG4" t="n">
         <v>10</v>
@@ -906,94 +906,94 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>551998328.54125</v>
+        <v>35678920</v>
       </c>
       <c r="D5" t="n">
-        <v>979845439577978.4</v>
+        <v>1141979000000000</v>
       </c>
       <c r="E5" t="n">
-        <v>23307.2355</v>
+        <v>20408.18</v>
       </c>
       <c r="F5" t="n">
-        <v>43.76850981250001</v>
+        <v>28.4781</v>
       </c>
       <c r="G5" t="n">
-        <v>74.27934854838709</v>
+        <v>99.89579000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>57.96004301886792</v>
+        <v>65.17021</v>
       </c>
       <c r="I5" t="n">
-        <v>498.3161921568628</v>
+        <v>437.1068</v>
       </c>
       <c r="J5" t="n">
-        <v>80.9889941304348</v>
+        <v>72.25211</v>
       </c>
       <c r="K5" t="n">
-        <v>1454.885669047619</v>
+        <v>1733.542</v>
       </c>
       <c r="L5" t="n">
-        <v>1250.925702325582</v>
+        <v>1355.603</v>
       </c>
       <c r="M5" t="n">
-        <v>358.049127</v>
+        <v>121.4739</v>
       </c>
       <c r="N5" t="n">
-        <v>534628.8465789474</v>
+        <v>123951.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1009.773721052632</v>
+        <v>1020.254</v>
       </c>
       <c r="P5" t="n">
-        <v>197.3416552631579</v>
+        <v>378.3895</v>
       </c>
       <c r="Q5" t="n">
-        <v>813.3790411764709</v>
+        <v>2836.2</v>
       </c>
       <c r="R5" t="n">
-        <v>683.5758235294121</v>
+        <v>466.4601000000001</v>
       </c>
       <c r="S5" t="n">
-        <v>306.2231235294119</v>
+        <v>128.6774</v>
       </c>
       <c r="T5" t="n">
-        <v>3187.525970588236</v>
+        <v>1241.009</v>
       </c>
       <c r="U5" t="n">
-        <v>6275.078911764706</v>
+        <v>19953.37</v>
       </c>
       <c r="V5" t="n">
-        <v>266.1761312500001</v>
+        <v>392.7231</v>
       </c>
       <c r="W5" t="n">
-        <v>176.8711</v>
+        <v>203.3676</v>
       </c>
       <c r="X5" t="n">
-        <v>526.7478781250002</v>
+        <v>206.3323</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.784228125</v>
+        <v>742.539</v>
       </c>
       <c r="Z5" t="n">
-        <v>320.2098406250001</v>
+        <v>264.2881</v>
       </c>
       <c r="AA5" t="n">
-        <v>449.0664531250001</v>
+        <v>491.6181</v>
       </c>
       <c r="AB5" t="n">
-        <v>1231.290125806451</v>
+        <v>627.4799</v>
       </c>
       <c r="AC5" t="n">
-        <v>570.5317580645162</v>
+        <v>517.4736</v>
       </c>
       <c r="AD5" t="n">
-        <v>498.5000677419355</v>
+        <v>458.2219999999999</v>
       </c>
       <c r="AE5" t="n">
-        <v>653.2078967741936</v>
+        <v>609.5844</v>
       </c>
       <c r="AF5" t="n">
-        <v>1024014.712903226</v>
+        <v>4044673</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
@@ -1007,94 +1007,94 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>131082713.479238</v>
+        <v>3730797</v>
       </c>
       <c r="D6" t="n">
-        <v>979845249890743.4</v>
+        <v>1141979000000000</v>
       </c>
       <c r="E6" t="n">
-        <v>15461.01971913043</v>
+        <v>17723.23</v>
       </c>
       <c r="F6" t="n">
-        <v>11.86154289782609</v>
+        <v>8.030434</v>
       </c>
       <c r="G6" t="n">
-        <v>73.7340885</v>
+        <v>85.20128</v>
       </c>
       <c r="H6" t="n">
-        <v>55.93408578947366</v>
+        <v>63.56179999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>505.3017971428571</v>
+        <v>434.2865</v>
       </c>
       <c r="J6" t="n">
-        <v>82.73869781249999</v>
+        <v>69.9109</v>
       </c>
       <c r="K6" t="n">
-        <v>1529.274033333334</v>
+        <v>1707.473</v>
       </c>
       <c r="L6" t="n">
-        <v>1136.0529</v>
+        <v>1160.921</v>
       </c>
       <c r="M6" t="n">
-        <v>105.5937566666667</v>
+        <v>74.41295</v>
       </c>
       <c r="N6" t="n">
-        <v>657499.3149999999</v>
+        <v>9665.772999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>1173.917679166666</v>
+        <v>1020.24</v>
       </c>
       <c r="P6" t="n">
-        <v>214.713092</v>
+        <v>378.167</v>
       </c>
       <c r="Q6" t="n">
-        <v>870.083585</v>
+        <v>2828.782</v>
       </c>
       <c r="R6" t="n">
-        <v>676.1191749999999</v>
+        <v>364.7967</v>
       </c>
       <c r="S6" t="n">
-        <v>286.479658</v>
+        <v>124.9121</v>
       </c>
       <c r="T6" t="n">
-        <v>3116.299352941176</v>
+        <v>1190.669</v>
       </c>
       <c r="U6" t="n">
-        <v>5049.4179</v>
+        <v>19952.83</v>
       </c>
       <c r="V6" t="n">
-        <v>274.3877115384615</v>
+        <v>389.6869</v>
       </c>
       <c r="W6" t="n">
-        <v>161.41522</v>
+        <v>155.563</v>
       </c>
       <c r="X6" t="n">
-        <v>414.2400666666665</v>
+        <v>127.3239</v>
       </c>
       <c r="Y6" t="n">
-        <v>567.9404146666667</v>
+        <v>735.0433</v>
       </c>
       <c r="Z6" t="n">
-        <v>235.8701</v>
+        <v>194.4962</v>
       </c>
       <c r="AA6" t="n">
-        <v>434.2058733333333</v>
+        <v>417.5494</v>
       </c>
       <c r="AB6" t="n">
-        <v>824.2571</v>
+        <v>568.3934</v>
       </c>
       <c r="AC6" t="n">
-        <v>532.2721428571429</v>
+        <v>511.2315</v>
       </c>
       <c r="AD6" t="n">
-        <v>478.3107142857144</v>
+        <v>432.7765000000001</v>
       </c>
       <c r="AE6" t="n">
-        <v>552.7862785714286</v>
+        <v>547.7805</v>
       </c>
       <c r="AF6" t="n">
-        <v>528910.7642857142</v>
+        <v>1575252</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
@@ -1108,94 +1108,94 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>22386032.75697663</v>
+        <v>1168.67</v>
       </c>
       <c r="D7" t="n">
-        <v>979845247221775.6</v>
+        <v>303462100000</v>
       </c>
       <c r="E7" t="n">
-        <v>10538.92018273669</v>
+        <v>14682.83</v>
       </c>
       <c r="F7" t="n">
-        <v>4.734328477272727</v>
+        <v>0.9986972</v>
       </c>
       <c r="G7" t="n">
-        <v>73.06886526315787</v>
+        <v>80.5997</v>
       </c>
       <c r="H7" t="n">
-        <v>51.929702972973</v>
+        <v>62.56486</v>
       </c>
       <c r="I7" t="n">
-        <v>508.5453117647058</v>
+        <v>434.0624</v>
       </c>
       <c r="J7" t="n">
-        <v>81.33426000000004</v>
+        <v>69.64694</v>
       </c>
       <c r="K7" t="n">
-        <v>1547.880764</v>
+        <v>1704.201</v>
       </c>
       <c r="L7" t="n">
-        <v>1231.970644</v>
+        <v>1157.767</v>
       </c>
       <c r="M7" t="n">
-        <v>62.31654772727273</v>
+        <v>46.04201</v>
       </c>
       <c r="N7" t="n">
-        <v>185047.0881818182</v>
+        <v>9637.835999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>903.6629000000004</v>
+        <v>1020.224</v>
       </c>
       <c r="P7" t="n">
-        <v>218.1955380952381</v>
+        <v>374.9515</v>
       </c>
       <c r="Q7" t="n">
-        <v>884.5204722222221</v>
+        <v>2797.055</v>
       </c>
       <c r="R7" t="n">
-        <v>670.9822555555554</v>
+        <v>298.8998</v>
       </c>
       <c r="S7" t="n">
-        <v>275.2584111111111</v>
+        <v>124.4075</v>
       </c>
       <c r="T7" t="n">
-        <v>2867.489666666666</v>
+        <v>1190.525</v>
       </c>
       <c r="U7" t="n">
-        <v>4332.972166666666</v>
+        <v>19943.58</v>
       </c>
       <c r="V7" t="n">
-        <v>276.3029291666667</v>
+        <v>388.9661</v>
       </c>
       <c r="W7" t="n">
-        <v>140.0561692307693</v>
+        <v>136.9449</v>
       </c>
       <c r="X7" t="n">
-        <v>435.2211769230769</v>
+        <v>120.3566</v>
       </c>
       <c r="Y7" t="n">
-        <v>592.2827323076924</v>
+        <v>732.1896</v>
       </c>
       <c r="Z7" t="n">
-        <v>167.6283538461538</v>
+        <v>139.9598</v>
       </c>
       <c r="AA7" t="n">
-        <v>422.4875307692308</v>
+        <v>110.1192</v>
       </c>
       <c r="AB7" t="n">
-        <v>676.1148416666666</v>
+        <v>546.2568</v>
       </c>
       <c r="AC7" t="n">
-        <v>527.3945500000001</v>
+        <v>505.412</v>
       </c>
       <c r="AD7" t="n">
-        <v>441.2363166666667</v>
+        <v>417.4676000000001</v>
       </c>
       <c r="AE7" t="n">
-        <v>517.9079250000001</v>
+        <v>543.9408</v>
       </c>
       <c r="AF7" t="n">
-        <v>207367.6483333333</v>
+        <v>564351</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
@@ -1209,94 +1209,94 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>6068226.029960158</v>
+        <v>1103.191</v>
       </c>
       <c r="D8" t="n">
-        <v>979845246797324.1</v>
+        <v>6130757000</v>
       </c>
       <c r="E8" t="n">
-        <v>6539.144861538723</v>
+        <v>11395.84</v>
       </c>
       <c r="F8" t="n">
-        <v>2.067634694545455</v>
+        <v>0.4468407</v>
       </c>
       <c r="G8" t="n">
-        <v>73.76754163636362</v>
+        <v>80.59061</v>
       </c>
       <c r="H8" t="n">
-        <v>50.68148611111111</v>
+        <v>62.08466</v>
       </c>
       <c r="I8" t="n">
-        <v>505.5113937499998</v>
+        <v>434.0617</v>
       </c>
       <c r="J8" t="n">
-        <v>81.29932333333339</v>
+        <v>69.64659</v>
       </c>
       <c r="K8" t="n">
-        <v>1501.713064</v>
+        <v>1703.932</v>
       </c>
       <c r="L8" t="n">
-        <v>1236.892270833333</v>
+        <v>1157.734</v>
       </c>
       <c r="M8" t="n">
-        <v>51.60391772727273</v>
+        <v>22.03759</v>
       </c>
       <c r="N8" t="n">
-        <v>128286.5663636364</v>
+        <v>9623.481</v>
       </c>
       <c r="O8" t="n">
-        <v>896.1592571428572</v>
+        <v>1020.203</v>
       </c>
       <c r="P8" t="n">
-        <v>217.8605666666668</v>
+        <v>374.0193</v>
       </c>
       <c r="Q8" t="n">
-        <v>833.7965388888889</v>
+        <v>2702.459</v>
       </c>
       <c r="R8" t="n">
-        <v>653.2776333333333</v>
+        <v>284.403</v>
       </c>
       <c r="S8" t="n">
-        <v>269.4567222222222</v>
+        <v>123.7403</v>
       </c>
       <c r="T8" t="n">
-        <v>2863.552333333334</v>
+        <v>1190.454</v>
       </c>
       <c r="U8" t="n">
-        <v>4308.457411764705</v>
+        <v>19940.99</v>
       </c>
       <c r="V8" t="n">
-        <v>243.18659375</v>
+        <v>387.6605</v>
       </c>
       <c r="W8" t="n">
-        <v>134.7091384615384</v>
+        <v>131.0556</v>
       </c>
       <c r="X8" t="n">
-        <v>435.0461307692307</v>
+        <v>120.0162</v>
       </c>
       <c r="Y8" t="n">
-        <v>590.0602376923076</v>
+        <v>729.3449000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>160.1913846153846</v>
+        <v>101.4142</v>
       </c>
       <c r="AA8" t="n">
-        <v>421.2096384615385</v>
+        <v>101.477</v>
       </c>
       <c r="AB8" t="n">
-        <v>669.8220416666667</v>
+        <v>538.9761999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>523.7213166666667</v>
+        <v>503.5011000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>423.9655833333333</v>
+        <v>416.9426999999999</v>
       </c>
       <c r="AE8" t="n">
-        <v>512.111525</v>
+        <v>523.3758</v>
       </c>
       <c r="AF8" t="n">
-        <v>128396.995</v>
+        <v>286793</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1310,94 +1310,94 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>1906704.098014009</v>
+        <v>1103.166</v>
       </c>
       <c r="D9" t="n">
-        <v>954200180372120.5</v>
+        <v>6078053000</v>
       </c>
       <c r="E9" t="n">
-        <v>3888.541775596083</v>
+        <v>8763.24</v>
       </c>
       <c r="F9" t="n">
-        <v>1.368481884545454</v>
+        <v>0.4277452999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>73.75796527272726</v>
+        <v>80.59061</v>
       </c>
       <c r="H9" t="n">
-        <v>50.16233611111114</v>
+        <v>61.71271</v>
       </c>
       <c r="I9" t="n">
-        <v>505.4572843749999</v>
+        <v>434.0616</v>
       </c>
       <c r="J9" t="n">
-        <v>81.29035366666672</v>
+        <v>69.64659</v>
       </c>
       <c r="K9" t="n">
-        <v>1496.965436</v>
+        <v>1703.842</v>
       </c>
       <c r="L9" t="n">
-        <v>1236.148725</v>
+        <v>1157.733</v>
       </c>
       <c r="M9" t="n">
-        <v>48.20266318181819</v>
+        <v>19.17028</v>
       </c>
       <c r="N9" t="n">
-        <v>114200.3768181818</v>
+        <v>9600.242</v>
       </c>
       <c r="O9" t="n">
-        <v>895.2841904761904</v>
+        <v>1020.19</v>
       </c>
       <c r="P9" t="n">
-        <v>217.5956761904761</v>
+        <v>354.7595</v>
       </c>
       <c r="Q9" t="n">
-        <v>792.7840722222222</v>
+        <v>2691.441</v>
       </c>
       <c r="R9" t="n">
-        <v>643.9356722222223</v>
+        <v>274.857</v>
       </c>
       <c r="S9" t="n">
-        <v>266.3937155555556</v>
+        <v>123.4241</v>
       </c>
       <c r="T9" t="n">
-        <v>2858.527933333334</v>
+        <v>1190.355</v>
       </c>
       <c r="U9" t="n">
-        <v>4289.524529411764</v>
+        <v>19932.24</v>
       </c>
       <c r="V9" t="n">
-        <v>242.8612999999999</v>
+        <v>387.3494</v>
       </c>
       <c r="W9" t="n">
-        <v>132.7713538461538</v>
+        <v>121.1745</v>
       </c>
       <c r="X9" t="n">
-        <v>434.977376923077</v>
+        <v>119.8705</v>
       </c>
       <c r="Y9" t="n">
-        <v>587.9518543076924</v>
+        <v>721.2268</v>
       </c>
       <c r="Z9" t="n">
-        <v>158.0156692307692</v>
+        <v>100.0201</v>
       </c>
       <c r="AA9" t="n">
-        <v>420.8650230769231</v>
+        <v>101.477</v>
       </c>
       <c r="AB9" t="n">
-        <v>669.7845083333333</v>
+        <v>535.9684999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>521.7574416666668</v>
+        <v>502.6429999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>422.0439583333334</v>
+        <v>416.7757</v>
       </c>
       <c r="AE9" t="n">
-        <v>511.3898</v>
+        <v>523.2553</v>
       </c>
       <c r="AF9" t="n">
-        <v>92792.27583333333</v>
+        <v>179630</v>
       </c>
       <c r="AG9" t="n">
         <v>10</v>
@@ -1411,94 +1411,94 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>619772.7422856524</v>
+        <v>1103.147</v>
       </c>
       <c r="D10" t="n">
-        <v>916718787251711.5</v>
+        <v>6078053000</v>
       </c>
       <c r="E10" t="n">
-        <v>2591.041513347996</v>
+        <v>6469.924</v>
       </c>
       <c r="F10" t="n">
-        <v>1.02327130744186</v>
+        <v>0.3431189</v>
       </c>
       <c r="G10" t="n">
-        <v>74.14334037037035</v>
+        <v>80.59061</v>
       </c>
       <c r="H10" t="n">
-        <v>49.9098213888889</v>
+        <v>61.44878</v>
       </c>
       <c r="I10" t="n">
-        <v>510.3267096774192</v>
+        <v>434.0616</v>
       </c>
       <c r="J10" t="n">
-        <v>81.03728758620694</v>
+        <v>69.64659</v>
       </c>
       <c r="K10" t="n">
-        <v>1492.577528</v>
+        <v>1703.761</v>
       </c>
       <c r="L10" t="n">
-        <v>1235.231320833333</v>
+        <v>1157.733</v>
       </c>
       <c r="M10" t="n">
-        <v>43.98732818181819</v>
+        <v>19.1495</v>
       </c>
       <c r="N10" t="n">
-        <v>105091.1568181818</v>
+        <v>9589.011</v>
       </c>
       <c r="O10" t="n">
-        <v>895.2073047619053</v>
+        <v>1020.168</v>
       </c>
       <c r="P10" t="n">
-        <v>217.2805952380953</v>
+        <v>351.4057</v>
       </c>
       <c r="Q10" t="n">
-        <v>760.4067333333334</v>
+        <v>2677.53</v>
       </c>
       <c r="R10" t="n">
-        <v>635.4956444444446</v>
+        <v>269.772</v>
       </c>
       <c r="S10" t="n">
-        <v>264.9700333333334</v>
+        <v>122.8115</v>
       </c>
       <c r="T10" t="n">
-        <v>2853.713466666668</v>
+        <v>1190.292</v>
       </c>
       <c r="U10" t="n">
-        <v>4276.500235294116</v>
+        <v>19603.99</v>
       </c>
       <c r="V10" t="n">
-        <v>242.604275</v>
+        <v>385.0456</v>
       </c>
       <c r="W10" t="n">
-        <v>131.0072461538461</v>
+        <v>118.2168</v>
       </c>
       <c r="X10" t="n">
-        <v>434.9484615384615</v>
+        <v>119.8036</v>
       </c>
       <c r="Y10" t="n">
-        <v>586.2177528461539</v>
+        <v>708.0099</v>
       </c>
       <c r="Z10" t="n">
-        <v>157.9452846153846</v>
+        <v>100.0016</v>
       </c>
       <c r="AA10" t="n">
-        <v>420.8301538461538</v>
+        <v>101.2494</v>
       </c>
       <c r="AB10" t="n">
-        <v>669.7801416666666</v>
+        <v>534.1550999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>520.3012666666668</v>
+        <v>502.0236</v>
       </c>
       <c r="AD10" t="n">
-        <v>420.9001416666667</v>
+        <v>416.6555999999999</v>
       </c>
       <c r="AE10" t="n">
-        <v>510.5948416666666</v>
+        <v>521.9976</v>
       </c>
       <c r="AF10" t="n">
-        <v>72753.54333333333</v>
+        <v>127945.9</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
@@ -1512,94 +1512,94 @@
         <v>60</v>
       </c>
       <c r="C11" t="n">
-        <v>61684.8590148345</v>
+        <v>1103.124</v>
       </c>
       <c r="D11" t="n">
-        <v>929387728401229.5</v>
+        <v>6078053000</v>
       </c>
       <c r="E11" t="n">
-        <v>1845.82800434845</v>
+        <v>4936.684</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8447416683720929</v>
+        <v>0.240053</v>
       </c>
       <c r="G11" t="n">
-        <v>73.36726043478261</v>
+        <v>80.59061</v>
       </c>
       <c r="H11" t="n">
-        <v>49.81308861111111</v>
+        <v>61.22613</v>
       </c>
       <c r="I11" t="n">
-        <v>510.3135903225806</v>
+        <v>434.0616</v>
       </c>
       <c r="J11" t="n">
-        <v>81.01456413793109</v>
+        <v>69.64659</v>
       </c>
       <c r="K11" t="n">
-        <v>1490.16102</v>
+        <v>1703.692</v>
       </c>
       <c r="L11" t="n">
-        <v>1253.744565217391</v>
+        <v>1157.733</v>
       </c>
       <c r="M11" t="n">
-        <v>40.78249727272726</v>
+        <v>18.91036</v>
       </c>
       <c r="N11" t="n">
-        <v>97527.21581818182</v>
+        <v>9570.441999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>895.1344142857141</v>
+        <v>1020.158</v>
       </c>
       <c r="P11" t="n">
-        <v>223.9294684210526</v>
+        <v>324.6287</v>
       </c>
       <c r="Q11" t="n">
-        <v>728.9950777777777</v>
+        <v>2611.203</v>
       </c>
       <c r="R11" t="n">
-        <v>625.6039733333333</v>
+        <v>265.3174</v>
       </c>
       <c r="S11" t="n">
-        <v>263.4776816666667</v>
+        <v>122.5969</v>
       </c>
       <c r="T11" t="n">
-        <v>2850.0404</v>
+        <v>1190.215</v>
       </c>
       <c r="U11" t="n">
-        <v>4011.982642857143</v>
+        <v>19036.34</v>
       </c>
       <c r="V11" t="n">
-        <v>242.4683</v>
+        <v>382.6778</v>
       </c>
       <c r="W11" t="n">
-        <v>129.4945923076923</v>
+        <v>114.3816</v>
       </c>
       <c r="X11" t="n">
-        <v>434.9315999999999</v>
+        <v>119.7568</v>
       </c>
       <c r="Y11" t="n">
-        <v>584.4253916899999</v>
+        <v>705.4825</v>
       </c>
       <c r="Z11" t="n">
-        <v>157.9442230769231</v>
+        <v>100.0002</v>
       </c>
       <c r="AA11" t="n">
-        <v>420.8193846153846</v>
+        <v>101.2268</v>
       </c>
       <c r="AB11" t="n">
-        <v>669.7789749999999</v>
+        <v>533.5568</v>
       </c>
       <c r="AC11" t="n">
-        <v>519.5705</v>
+        <v>501.7503</v>
       </c>
       <c r="AD11" t="n">
-        <v>419.6727166666667</v>
+        <v>416.4466</v>
       </c>
       <c r="AE11" t="n">
-        <v>509.3114666666667</v>
+        <v>521.8528</v>
       </c>
       <c r="AF11" t="n">
-        <v>58382.66916666667</v>
+        <v>103271.5</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
@@ -1613,94 +1613,94 @@
         <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>14140.53786436508</v>
+        <v>1103.102</v>
       </c>
       <c r="D12" t="n">
-        <v>929387728388463.5</v>
+        <v>6078053000</v>
       </c>
       <c r="E12" t="n">
-        <v>1346.90356190201</v>
+        <v>3235.508</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7436784266666665</v>
+        <v>0.1769591</v>
       </c>
       <c r="G12" t="n">
-        <v>73.8255991111111</v>
+        <v>80.59061</v>
       </c>
       <c r="H12" t="n">
-        <v>49.76219166666667</v>
+        <v>61.03959</v>
       </c>
       <c r="I12" t="n">
-        <v>510.3107387096773</v>
+        <v>434.0616</v>
       </c>
       <c r="J12" t="n">
-        <v>81.00358448275867</v>
+        <v>69.64659</v>
       </c>
       <c r="K12" t="n">
-        <v>1482.193620833333</v>
+        <v>1703.575</v>
       </c>
       <c r="L12" t="n">
-        <v>1253.618043478261</v>
+        <v>1157.733</v>
       </c>
       <c r="M12" t="n">
-        <v>39.39813827272727</v>
+        <v>18.66042</v>
       </c>
       <c r="N12" t="n">
-        <v>87941.82536363637</v>
+        <v>9552.607</v>
       </c>
       <c r="O12" t="n">
-        <v>895.0631952380952</v>
+        <v>1020.145</v>
       </c>
       <c r="P12" t="n">
-        <v>218.5862555555556</v>
+        <v>324.6061</v>
       </c>
       <c r="Q12" t="n">
-        <v>699.0509555555556</v>
+        <v>2575.439</v>
       </c>
       <c r="R12" t="n">
-        <v>597.5699533333333</v>
+        <v>262.56</v>
       </c>
       <c r="S12" t="n">
-        <v>263.2210277777777</v>
+        <v>122.5969</v>
       </c>
       <c r="T12" t="n">
-        <v>2845.537866666666</v>
+        <v>1190.075</v>
       </c>
       <c r="U12" t="n">
-        <v>3998.560428571428</v>
+        <v>18635.25</v>
       </c>
       <c r="V12" t="n">
-        <v>242.2854375000001</v>
+        <v>382.5003</v>
       </c>
       <c r="W12" t="n">
-        <v>128.5786692307692</v>
+        <v>111.931</v>
       </c>
       <c r="X12" t="n">
-        <v>434.920823076923</v>
+        <v>119.7117</v>
       </c>
       <c r="Y12" t="n">
-        <v>583.4754123699232</v>
+        <v>705.2203</v>
       </c>
       <c r="Z12" t="n">
-        <v>157.9441384615384</v>
+        <v>100.0001</v>
       </c>
       <c r="AA12" t="n">
-        <v>420.8193615384615</v>
+        <v>101.2228</v>
       </c>
       <c r="AB12" t="n">
-        <v>669.7779750000001</v>
+        <v>533.1077</v>
       </c>
       <c r="AC12" t="n">
-        <v>518.6839583333334</v>
+        <v>501.4997</v>
       </c>
       <c r="AD12" t="n">
-        <v>419.0113583333332</v>
+        <v>416.3747999999999</v>
       </c>
       <c r="AE12" t="n">
-        <v>505.2525583333334</v>
+        <v>516.362</v>
       </c>
       <c r="AF12" t="n">
-        <v>37129.86416666667</v>
+        <v>78443.19</v>
       </c>
       <c r="AG12" t="n">
         <v>10</v>
@@ -1714,94 +1714,94 @@
         <v>80</v>
       </c>
       <c r="C13" t="n">
-        <v>4560.179749620001</v>
+        <v>1103.08</v>
       </c>
       <c r="D13" t="n">
-        <v>929387728378429.4</v>
+        <v>6078053000</v>
       </c>
       <c r="E13" t="n">
-        <v>889.4706887909587</v>
+        <v>0.05950124999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6329585938095237</v>
+        <v>0.1368302</v>
       </c>
       <c r="G13" t="n">
-        <v>73.82554955555555</v>
+        <v>80.59061</v>
       </c>
       <c r="H13" t="n">
-        <v>49.72332694444444</v>
+        <v>60.72072000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>506.87117</v>
+        <v>434.0616</v>
       </c>
       <c r="J13" t="n">
-        <v>81.00255793103454</v>
+        <v>69.64659</v>
       </c>
       <c r="K13" t="n">
-        <v>1480.475445833333</v>
+        <v>1703.528</v>
       </c>
       <c r="L13" t="n">
-        <v>1253.542208695652</v>
+        <v>1157.733</v>
       </c>
       <c r="M13" t="n">
-        <v>39.17995027272728</v>
+        <v>18.63271</v>
       </c>
       <c r="N13" t="n">
-        <v>79159.86595454546</v>
+        <v>9526.242</v>
       </c>
       <c r="O13" t="n">
-        <v>894.9692095238099</v>
+        <v>1020.131</v>
       </c>
       <c r="P13" t="n">
-        <v>218.0807222222222</v>
+        <v>324.561</v>
       </c>
       <c r="Q13" t="n">
-        <v>664.56439</v>
+        <v>2551.125</v>
       </c>
       <c r="R13" t="n">
-        <v>576.8259733333335</v>
+        <v>260.4413</v>
       </c>
       <c r="S13" t="n">
-        <v>261.7512266666666</v>
+        <v>122.5823</v>
       </c>
       <c r="T13" t="n">
-        <v>2840.9094</v>
+        <v>1189.959</v>
       </c>
       <c r="U13" t="n">
-        <v>3972.888642857143</v>
+        <v>18485.65</v>
       </c>
       <c r="V13" t="n">
-        <v>242.074425</v>
+        <v>382.06</v>
       </c>
       <c r="W13" t="n">
-        <v>127.6741461538462</v>
+        <v>109.4767</v>
       </c>
       <c r="X13" t="n">
-        <v>434.9040384615383</v>
+        <v>119.6747</v>
       </c>
       <c r="Y13" t="n">
-        <v>582.9108884622461</v>
+        <v>705.0751</v>
       </c>
       <c r="Z13" t="n">
-        <v>157.9441307692308</v>
+        <v>100</v>
       </c>
       <c r="AA13" t="n">
-        <v>422.63855</v>
+        <v>100.4389</v>
       </c>
       <c r="AB13" t="n">
-        <v>669.7729333333333</v>
+        <v>532.9644</v>
       </c>
       <c r="AC13" t="n">
-        <v>518.3140249999999</v>
+        <v>501.4063</v>
       </c>
       <c r="AD13" t="n">
-        <v>418.538225</v>
+        <v>416.3194999999999</v>
       </c>
       <c r="AE13" t="n">
-        <v>504.1063666666666</v>
+        <v>512.5642</v>
       </c>
       <c r="AF13" t="n">
-        <v>30155.72583333333</v>
+        <v>56767.92</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
@@ -1815,94 +1815,94 @@
         <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>77.0585125510204</v>
+        <v>1103.052</v>
       </c>
       <c r="D14" t="n">
-        <v>942395495980809.5</v>
+        <v>6078053000</v>
       </c>
       <c r="E14" t="n">
-        <v>730.9404733397525</v>
+        <v>3.973446e-08</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5771292121951221</v>
+        <v>0.10663</v>
       </c>
       <c r="G14" t="n">
-        <v>74.20501395348838</v>
+        <v>80.59061</v>
       </c>
       <c r="H14" t="n">
-        <v>49.58115971428569</v>
+        <v>60.5321</v>
       </c>
       <c r="I14" t="n">
-        <v>506.2663103448276</v>
+        <v>434.0616</v>
       </c>
       <c r="J14" t="n">
-        <v>80.87496000000006</v>
+        <v>69.64659</v>
       </c>
       <c r="K14" t="n">
-        <v>1473.529586956522</v>
+        <v>1703.464</v>
       </c>
       <c r="L14" t="n">
-        <v>1253.405973913043</v>
+        <v>1157.733</v>
       </c>
       <c r="M14" t="n">
-        <v>38.94366845454545</v>
+        <v>18.62995</v>
       </c>
       <c r="N14" t="n">
-        <v>72774.87704545456</v>
+        <v>9469.177</v>
       </c>
       <c r="O14" t="n">
-        <v>894.8655952380948</v>
+        <v>1020.072</v>
       </c>
       <c r="P14" t="n">
-        <v>217.7698222222222</v>
+        <v>324.5437</v>
       </c>
       <c r="Q14" t="n">
-        <v>633.9060177777778</v>
+        <v>2542.194</v>
       </c>
       <c r="R14" t="n">
-        <v>564.9642066666667</v>
+        <v>258.877</v>
       </c>
       <c r="S14" t="n">
-        <v>260.4013233333334</v>
+        <v>122.1813</v>
       </c>
       <c r="T14" t="n">
-        <v>2836.4554</v>
+        <v>1189.872</v>
       </c>
       <c r="U14" t="n">
-        <v>3927.539</v>
+        <v>18141.08</v>
       </c>
       <c r="V14" t="n">
-        <v>241.72861875</v>
+        <v>381.9468</v>
       </c>
       <c r="W14" t="n">
-        <v>127.1196384615385</v>
+        <v>107.5234</v>
       </c>
       <c r="X14" t="n">
-        <v>434.9014</v>
+        <v>119.6513</v>
       </c>
       <c r="Y14" t="n">
-        <v>582.4718407698538</v>
+        <v>704.9827</v>
       </c>
       <c r="Z14" t="n">
-        <v>157.9441307692308</v>
+        <v>100</v>
       </c>
       <c r="AA14" t="n">
-        <v>422.63855</v>
+        <v>100.4389</v>
       </c>
       <c r="AB14" t="n">
-        <v>669.772675</v>
+        <v>532.8964</v>
       </c>
       <c r="AC14" t="n">
-        <v>511.7593916666665</v>
+        <v>500.7488999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>418.2112333333333</v>
+        <v>416.2251</v>
       </c>
       <c r="AE14" t="n">
-        <v>503.07865</v>
+        <v>511.5331</v>
       </c>
       <c r="AF14" t="n">
-        <v>26387.21916666667</v>
+        <v>42226.95</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -1916,94 +1916,94 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>69.18263174468086</v>
+        <v>1103.031</v>
       </c>
       <c r="D15" t="n">
-        <v>955774914137664.5</v>
+        <v>6078053000</v>
       </c>
       <c r="E15" t="n">
-        <v>619.4913633849168</v>
+        <v>7.774473999999999e-10</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5105090032499999</v>
+        <v>0.08573834</v>
       </c>
       <c r="G15" t="n">
-        <v>74.1003361904762</v>
+        <v>80.59061</v>
       </c>
       <c r="H15" t="n">
-        <v>49.55423542857144</v>
+        <v>60.25238</v>
       </c>
       <c r="I15" t="n">
-        <v>506.2660793103448</v>
+        <v>434.0616</v>
       </c>
       <c r="J15" t="n">
-        <v>80.87493500000005</v>
+        <v>69.64659</v>
       </c>
       <c r="K15" t="n">
-        <v>1472.860378260869</v>
+        <v>1703.389</v>
       </c>
       <c r="L15" t="n">
-        <v>1253.382430434782</v>
+        <v>1157.733</v>
       </c>
       <c r="M15" t="n">
-        <v>38.78582259090908</v>
+        <v>18.6299</v>
       </c>
       <c r="N15" t="n">
-        <v>67173.27695454546</v>
+        <v>9439.441999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>894.774657142857</v>
+        <v>1020.06</v>
       </c>
       <c r="P15" t="n">
-        <v>217.3408166666667</v>
+        <v>324.0643</v>
       </c>
       <c r="Q15" t="n">
-        <v>612.6579155555555</v>
+        <v>2531.477</v>
       </c>
       <c r="R15" t="n">
-        <v>555.7377733333334</v>
+        <v>257.7791</v>
       </c>
       <c r="S15" t="n">
-        <v>259.286201111111</v>
+        <v>122.1798</v>
       </c>
       <c r="T15" t="n">
-        <v>2831.472133333334</v>
+        <v>1189.735</v>
       </c>
       <c r="U15" t="n">
-        <v>3919.462615384616</v>
+        <v>17500.29</v>
       </c>
       <c r="V15" t="n">
-        <v>241.631675</v>
+        <v>376.8015</v>
       </c>
       <c r="W15" t="n">
-        <v>126.9568</v>
+        <v>106.4521</v>
       </c>
       <c r="X15" t="n">
-        <v>434.8999615384615</v>
+        <v>119.6286</v>
       </c>
       <c r="Y15" t="n">
-        <v>582.2763067032299</v>
+        <v>704.9172</v>
       </c>
       <c r="Z15" t="n">
-        <v>157.9441307692308</v>
+        <v>100</v>
       </c>
       <c r="AA15" t="n">
-        <v>422.63855</v>
+        <v>100.4385</v>
       </c>
       <c r="AB15" t="n">
-        <v>669.7726166666667</v>
+        <v>532.8531</v>
       </c>
       <c r="AC15" t="n">
-        <v>511.00785</v>
+        <v>500.6023999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>417.8600916666667</v>
+        <v>416.1295</v>
       </c>
       <c r="AE15" t="n">
-        <v>502.1611249999999</v>
+        <v>511.5280000000001</v>
       </c>
       <c r="AF15" t="n">
-        <v>23876.65416666666</v>
+        <v>16424.48</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>

--- a/code/results_MH_battle_royale/results_cec2017_10.xlsx
+++ b/code/results_MH_battle_royale/results_cec2017_10.xlsx
@@ -603,94 +603,94 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6594946000</v>
+        <v>2142936000</v>
       </c>
       <c r="D2" t="n">
-        <v>1375454000000000</v>
+        <v>3553415000</v>
       </c>
       <c r="E2" t="n">
-        <v>34480.81</v>
+        <v>34050.15000000002</v>
       </c>
       <c r="F2" t="n">
-        <v>356.9937</v>
+        <v>168.4795</v>
       </c>
       <c r="G2" t="n">
-        <v>129.2497</v>
+        <v>83.93782000000006</v>
       </c>
       <c r="H2" t="n">
-        <v>70.62432</v>
+        <v>65.93274999999996</v>
       </c>
       <c r="I2" t="n">
-        <v>468.5021</v>
+        <v>299.1261000000002</v>
       </c>
       <c r="J2" t="n">
-        <v>104.2883</v>
+        <v>73.22453999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>1940.725</v>
+        <v>1697.39</v>
       </c>
       <c r="L2" t="n">
-        <v>1816.782</v>
+        <v>1535.127</v>
       </c>
       <c r="M2" t="n">
-        <v>468.4259</v>
+        <v>1838.676</v>
       </c>
       <c r="N2" t="n">
-        <v>26118010</v>
+        <v>10243670</v>
       </c>
       <c r="O2" t="n">
-        <v>29537.19</v>
+        <v>3017.285000000002</v>
       </c>
       <c r="P2" t="n">
-        <v>1334.131</v>
+        <v>516.6137999999996</v>
       </c>
       <c r="Q2" t="n">
-        <v>5653.784</v>
+        <v>4452.346000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>884.9585</v>
+        <v>542.9959999999996</v>
       </c>
       <c r="S2" t="n">
-        <v>191.152</v>
+        <v>222.027</v>
       </c>
       <c r="T2" t="n">
-        <v>8730.846</v>
+        <v>2000.150000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>20994.65</v>
+        <v>6691.899999999996</v>
       </c>
       <c r="V2" t="n">
-        <v>407.5216</v>
+        <v>236.5474999999999</v>
       </c>
       <c r="W2" t="n">
-        <v>294.8632</v>
+        <v>285.2610000000002</v>
       </c>
       <c r="X2" t="n">
-        <v>716.8356</v>
+        <v>548.2086999999997</v>
       </c>
       <c r="Y2" t="n">
-        <v>766.0724</v>
+        <v>460.6548000000002</v>
       </c>
       <c r="Z2" t="n">
-        <v>586.8827</v>
+        <v>528.1579</v>
       </c>
       <c r="AA2" t="n">
-        <v>1206.172</v>
+        <v>477.6893999999998</v>
       </c>
       <c r="AB2" t="n">
-        <v>1285.865</v>
+        <v>722.1169000000006</v>
       </c>
       <c r="AC2" t="n">
-        <v>534.7671</v>
+        <v>564.3546000000002</v>
       </c>
       <c r="AD2" t="n">
-        <v>631.0674</v>
+        <v>646.5386</v>
       </c>
       <c r="AE2" t="n">
-        <v>979.4261</v>
+        <v>739.0109</v>
       </c>
       <c r="AF2" t="n">
-        <v>6555114</v>
+        <v>4712152</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
@@ -704,94 +704,94 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3899972000</v>
+        <v>2142936000</v>
       </c>
       <c r="D3" t="n">
-        <v>1375454000000000</v>
+        <v>3553415000</v>
       </c>
       <c r="E3" t="n">
-        <v>21998.06</v>
+        <v>34050.15000000002</v>
       </c>
       <c r="F3" t="n">
-        <v>356.9937</v>
+        <v>168.4795</v>
       </c>
       <c r="G3" t="n">
-        <v>129.2497</v>
+        <v>83.93782000000006</v>
       </c>
       <c r="H3" t="n">
-        <v>70.62432</v>
+        <v>64.16207000000003</v>
       </c>
       <c r="I3" t="n">
-        <v>468.5021</v>
+        <v>299.1261000000002</v>
       </c>
       <c r="J3" t="n">
-        <v>104.2883</v>
+        <v>73.22453999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>1940.725</v>
+        <v>1697.39</v>
       </c>
       <c r="L3" t="n">
-        <v>1816.782</v>
+        <v>1535.127</v>
       </c>
       <c r="M3" t="n">
-        <v>468.4259</v>
+        <v>1297.622</v>
       </c>
       <c r="N3" t="n">
-        <v>26118010</v>
+        <v>10243670</v>
       </c>
       <c r="O3" t="n">
-        <v>29537.19</v>
+        <v>2963.934</v>
       </c>
       <c r="P3" t="n">
-        <v>407.6384</v>
+        <v>160.2479</v>
       </c>
       <c r="Q3" t="n">
-        <v>3423.178</v>
+        <v>4452.346000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>617.779</v>
+        <v>366.1491999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>131.5794</v>
+        <v>222.027</v>
       </c>
       <c r="T3" t="n">
-        <v>8730.846</v>
+        <v>2000.150000000001</v>
       </c>
       <c r="U3" t="n">
-        <v>20994.65</v>
+        <v>285.9498999999998</v>
       </c>
       <c r="V3" t="n">
-        <v>407.5216</v>
+        <v>125.0542999999999</v>
       </c>
       <c r="W3" t="n">
-        <v>234.5098</v>
+        <v>285.2610000000002</v>
       </c>
       <c r="X3" t="n">
-        <v>716.8356</v>
+        <v>548.2086999999997</v>
       </c>
       <c r="Y3" t="n">
-        <v>766.0724</v>
+        <v>460.6548000000002</v>
       </c>
       <c r="Z3" t="n">
-        <v>441.1193</v>
+        <v>501.6578000000003</v>
       </c>
       <c r="AA3" t="n">
-        <v>933.4082000000001</v>
+        <v>477.6893999999998</v>
       </c>
       <c r="AB3" t="n">
-        <v>740.0843</v>
+        <v>722.1169000000006</v>
       </c>
       <c r="AC3" t="n">
-        <v>534.7671</v>
+        <v>561.9357999999997</v>
       </c>
       <c r="AD3" t="n">
-        <v>631.0674</v>
+        <v>572.9457000000001</v>
       </c>
       <c r="AE3" t="n">
-        <v>682.9308</v>
+        <v>720.0840000000001</v>
       </c>
       <c r="AF3" t="n">
-        <v>6555114</v>
+        <v>4712152</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
@@ -805,94 +805,94 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>215759800</v>
+        <v>1028639200</v>
       </c>
       <c r="D4" t="n">
-        <v>1375454000000000</v>
+        <v>3532993000</v>
       </c>
       <c r="E4" t="n">
-        <v>21998.06</v>
+        <v>27777.97000000002</v>
       </c>
       <c r="F4" t="n">
-        <v>81.90392</v>
+        <v>59.55727333333331</v>
       </c>
       <c r="G4" t="n">
-        <v>109.7765</v>
+        <v>73.16293666666668</v>
       </c>
       <c r="H4" t="n">
-        <v>66.72122</v>
+        <v>64.12563000000004</v>
       </c>
       <c r="I4" t="n">
-        <v>451.5591000000001</v>
+        <v>287.6113000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>84.55213999999999</v>
+        <v>54.97963310344829</v>
       </c>
       <c r="K4" t="n">
-        <v>1777.774</v>
+        <v>1567.813827586206</v>
       </c>
       <c r="L4" t="n">
-        <v>1609.25</v>
+        <v>1478.293785714286</v>
       </c>
       <c r="M4" t="n">
-        <v>199.9515</v>
+        <v>635.7636285714287</v>
       </c>
       <c r="N4" t="n">
-        <v>1756881</v>
+        <v>3148021.857142857</v>
       </c>
       <c r="O4" t="n">
-        <v>3406.246</v>
+        <v>2892.569285714287</v>
       </c>
       <c r="P4" t="n">
-        <v>378.4749</v>
+        <v>160.2479</v>
       </c>
       <c r="Q4" t="n">
-        <v>3423.178</v>
+        <v>3833.882499999997</v>
       </c>
       <c r="R4" t="n">
-        <v>555.5594</v>
+        <v>366.1491999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>131.5794</v>
+        <v>219.7583857142859</v>
       </c>
       <c r="T4" t="n">
-        <v>5672.502</v>
+        <v>1905.105357142858</v>
       </c>
       <c r="U4" t="n">
-        <v>19953.85</v>
+        <v>285.9498999999998</v>
       </c>
       <c r="V4" t="n">
-        <v>399.0759</v>
+        <v>125.0542999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>234.5098</v>
+        <v>275.4384500000002</v>
       </c>
       <c r="X4" t="n">
-        <v>304.7328</v>
+        <v>270.7127285714286</v>
       </c>
       <c r="Y4" t="n">
-        <v>753.3261</v>
+        <v>446.0368785714284</v>
       </c>
       <c r="Z4" t="n">
-        <v>384.113</v>
+        <v>501.6578000000003</v>
       </c>
       <c r="AA4" t="n">
-        <v>739.4453</v>
+        <v>466.1741357142856</v>
       </c>
       <c r="AB4" t="n">
-        <v>740.0843</v>
+        <v>686.2901857142855</v>
       </c>
       <c r="AC4" t="n">
-        <v>521.7133</v>
+        <v>556.6549285714283</v>
       </c>
       <c r="AD4" t="n">
-        <v>507.6395000000001</v>
+        <v>549.5914571428574</v>
       </c>
       <c r="AE4" t="n">
-        <v>682.9308</v>
+        <v>646.1228357142852</v>
       </c>
       <c r="AF4" t="n">
-        <v>5637700</v>
+        <v>4254444.071428572</v>
       </c>
       <c r="AG4" t="n">
         <v>10</v>
@@ -906,94 +906,94 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>35678920</v>
+        <v>400756973.3333333</v>
       </c>
       <c r="D5" t="n">
-        <v>1141979000000000</v>
+        <v>3460652333.333333</v>
       </c>
       <c r="E5" t="n">
-        <v>20408.18</v>
+        <v>26353.07999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>28.4781</v>
+        <v>45.33625333333334</v>
       </c>
       <c r="G5" t="n">
-        <v>99.89579000000001</v>
+        <v>72.00063666666668</v>
       </c>
       <c r="H5" t="n">
-        <v>65.17021</v>
+        <v>61.43839000000002</v>
       </c>
       <c r="I5" t="n">
-        <v>437.1068</v>
+        <v>286.4248000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>72.25211</v>
+        <v>49.18668896551725</v>
       </c>
       <c r="K5" t="n">
-        <v>1733.542</v>
+        <v>1485.463827586206</v>
       </c>
       <c r="L5" t="n">
-        <v>1355.603</v>
+        <v>1448.066857142857</v>
       </c>
       <c r="M5" t="n">
-        <v>121.4739</v>
+        <v>455.7755214285716</v>
       </c>
       <c r="N5" t="n">
-        <v>123951.3</v>
+        <v>521629.9357142859</v>
       </c>
       <c r="O5" t="n">
-        <v>1020.254</v>
+        <v>390.8234857142857</v>
       </c>
       <c r="P5" t="n">
-        <v>378.3895</v>
+        <v>159.8447857142857</v>
       </c>
       <c r="Q5" t="n">
-        <v>2836.2</v>
+        <v>3789.086214285716</v>
       </c>
       <c r="R5" t="n">
-        <v>466.4601000000001</v>
+        <v>349.0379500000003</v>
       </c>
       <c r="S5" t="n">
-        <v>128.6774</v>
+        <v>206.0079642857143</v>
       </c>
       <c r="T5" t="n">
-        <v>1241.009</v>
+        <v>1733.19</v>
       </c>
       <c r="U5" t="n">
-        <v>19953.37</v>
+        <v>285.889342857143</v>
       </c>
       <c r="V5" t="n">
-        <v>392.7231</v>
+        <v>111.8838071428571</v>
       </c>
       <c r="W5" t="n">
-        <v>203.3676</v>
+        <v>258.8861499999999</v>
       </c>
       <c r="X5" t="n">
-        <v>206.3323</v>
+        <v>225.3491928571428</v>
       </c>
       <c r="Y5" t="n">
-        <v>742.539</v>
+        <v>444.8275928571427</v>
       </c>
       <c r="Z5" t="n">
-        <v>264.2881</v>
+        <v>353.1379214285714</v>
       </c>
       <c r="AA5" t="n">
-        <v>491.6181</v>
+        <v>448.7186500000003</v>
       </c>
       <c r="AB5" t="n">
-        <v>627.4799</v>
+        <v>681.5693285714282</v>
       </c>
       <c r="AC5" t="n">
-        <v>517.4736</v>
+        <v>537.146371428571</v>
       </c>
       <c r="AD5" t="n">
-        <v>458.2219999999999</v>
+        <v>480.2092214285717</v>
       </c>
       <c r="AE5" t="n">
-        <v>609.5844</v>
+        <v>612.5852785714287</v>
       </c>
       <c r="AF5" t="n">
-        <v>4044673</v>
+        <v>4054767.642857143</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
@@ -1007,94 +1007,94 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>3730797</v>
+        <v>41889209.66666666</v>
       </c>
       <c r="D6" t="n">
-        <v>1141979000000000</v>
+        <v>3315986333.333333</v>
       </c>
       <c r="E6" t="n">
-        <v>17723.23</v>
+        <v>23776.24666666667</v>
       </c>
       <c r="F6" t="n">
-        <v>8.030434</v>
+        <v>12.28182233333333</v>
       </c>
       <c r="G6" t="n">
-        <v>85.20128</v>
+        <v>69.85488666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>63.56179999999999</v>
+        <v>58.98118666666668</v>
       </c>
       <c r="I6" t="n">
-        <v>434.2865</v>
+        <v>282.2315333333332</v>
       </c>
       <c r="J6" t="n">
-        <v>69.9109</v>
+        <v>40.38109724137931</v>
       </c>
       <c r="K6" t="n">
-        <v>1707.473</v>
+        <v>1295.72</v>
       </c>
       <c r="L6" t="n">
-        <v>1160.921</v>
+        <v>1320.011714285715</v>
       </c>
       <c r="M6" t="n">
-        <v>74.41295</v>
+        <v>142.4300285714286</v>
       </c>
       <c r="N6" t="n">
-        <v>9665.772999999999</v>
+        <v>87584.45285714282</v>
       </c>
       <c r="O6" t="n">
-        <v>1020.24</v>
+        <v>388.8581857142859</v>
       </c>
       <c r="P6" t="n">
-        <v>378.167</v>
+        <v>159.1958571428571</v>
       </c>
       <c r="Q6" t="n">
-        <v>2828.782</v>
+        <v>3779.81314285714</v>
       </c>
       <c r="R6" t="n">
-        <v>364.7967</v>
+        <v>347.9911928571427</v>
       </c>
       <c r="S6" t="n">
-        <v>124.9121</v>
+        <v>200.1313571428573</v>
       </c>
       <c r="T6" t="n">
-        <v>1190.669</v>
+        <v>1733.058285714286</v>
       </c>
       <c r="U6" t="n">
-        <v>19952.83</v>
+        <v>285.8886714285714</v>
       </c>
       <c r="V6" t="n">
-        <v>389.6869</v>
+        <v>98.71800785714291</v>
       </c>
       <c r="W6" t="n">
-        <v>155.563</v>
+        <v>246.4349357142856</v>
       </c>
       <c r="X6" t="n">
-        <v>127.3239</v>
+        <v>124.1810785714286</v>
       </c>
       <c r="Y6" t="n">
-        <v>735.0433</v>
+        <v>433.3263142857145</v>
       </c>
       <c r="Z6" t="n">
-        <v>194.4962</v>
+        <v>229.96135</v>
       </c>
       <c r="AA6" t="n">
-        <v>417.5494</v>
+        <v>227.8240142857142</v>
       </c>
       <c r="AB6" t="n">
-        <v>568.3934</v>
+        <v>420.7562928571431</v>
       </c>
       <c r="AC6" t="n">
-        <v>511.2315</v>
+        <v>522.0293785714287</v>
       </c>
       <c r="AD6" t="n">
-        <v>432.7765000000001</v>
+        <v>443.5602000000001</v>
       </c>
       <c r="AE6" t="n">
-        <v>547.7805</v>
+        <v>573.5629000000002</v>
       </c>
       <c r="AF6" t="n">
-        <v>1575252</v>
+        <v>2551578.214285714</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
@@ -1108,94 +1108,94 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>1168.67</v>
+        <v>129105.3248</v>
       </c>
       <c r="D7" t="n">
-        <v>303462100000</v>
+        <v>3305894333.333333</v>
       </c>
       <c r="E7" t="n">
-        <v>14682.83</v>
+        <v>18763.55333333334</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9986972</v>
+        <v>3.842533333333331</v>
       </c>
       <c r="G7" t="n">
-        <v>80.5997</v>
+        <v>69.64804999999997</v>
       </c>
       <c r="H7" t="n">
-        <v>62.56486</v>
+        <v>58.46638666666664</v>
       </c>
       <c r="I7" t="n">
-        <v>434.0624</v>
+        <v>281.5872</v>
       </c>
       <c r="J7" t="n">
-        <v>69.64694</v>
+        <v>39.8006403448276</v>
       </c>
       <c r="K7" t="n">
-        <v>1704.201</v>
+        <v>1195.126862068965</v>
       </c>
       <c r="L7" t="n">
-        <v>1157.767</v>
+        <v>1311.619285714286</v>
       </c>
       <c r="M7" t="n">
-        <v>46.04201</v>
+        <v>64.56084214285711</v>
       </c>
       <c r="N7" t="n">
-        <v>9637.835999999999</v>
+        <v>85519.75071428568</v>
       </c>
       <c r="O7" t="n">
-        <v>1020.224</v>
+        <v>388.8575000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>374.9515</v>
+        <v>158.8853642857143</v>
       </c>
       <c r="Q7" t="n">
-        <v>2797.055</v>
+        <v>3733.192285714283</v>
       </c>
       <c r="R7" t="n">
-        <v>298.8998</v>
+        <v>346.2723714285715</v>
       </c>
       <c r="S7" t="n">
-        <v>124.4075</v>
+        <v>198.7930142857142</v>
       </c>
       <c r="T7" t="n">
-        <v>1190.525</v>
+        <v>1732.926714285715</v>
       </c>
       <c r="U7" t="n">
-        <v>19943.58</v>
+        <v>285.8882357142858</v>
       </c>
       <c r="V7" t="n">
-        <v>388.9661</v>
+        <v>98.40357642857144</v>
       </c>
       <c r="W7" t="n">
-        <v>136.9449</v>
+        <v>243.3861214285714</v>
       </c>
       <c r="X7" t="n">
-        <v>120.3566</v>
+        <v>115.4798571428571</v>
       </c>
       <c r="Y7" t="n">
-        <v>732.1896</v>
+        <v>423.456257142857</v>
       </c>
       <c r="Z7" t="n">
-        <v>139.9598</v>
+        <v>174.4061428571428</v>
       </c>
       <c r="AA7" t="n">
-        <v>110.1192</v>
+        <v>102.8713928571429</v>
       </c>
       <c r="AB7" t="n">
-        <v>546.2568</v>
+        <v>352.8221571428575</v>
       </c>
       <c r="AC7" t="n">
-        <v>505.412</v>
+        <v>506.4660071428572</v>
       </c>
       <c r="AD7" t="n">
-        <v>417.4676000000001</v>
+        <v>428.6643285714287</v>
       </c>
       <c r="AE7" t="n">
-        <v>543.9408</v>
+        <v>567.3405785714282</v>
       </c>
       <c r="AF7" t="n">
-        <v>564351</v>
+        <v>1056419.042857142</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
@@ -1209,94 +1209,94 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>1103.191</v>
+        <v>3.629211800000003</v>
       </c>
       <c r="D8" t="n">
-        <v>6130757000</v>
+        <v>3305894333.333333</v>
       </c>
       <c r="E8" t="n">
-        <v>11395.84</v>
+        <v>13994.52666666667</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4468407</v>
+        <v>1.877419000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>80.59061</v>
+        <v>69.64684333333338</v>
       </c>
       <c r="H8" t="n">
-        <v>62.08466</v>
+        <v>58.38418666666664</v>
       </c>
       <c r="I8" t="n">
-        <v>434.0617</v>
+        <v>281.5808666666668</v>
       </c>
       <c r="J8" t="n">
-        <v>69.64659</v>
+        <v>39.79833862068963</v>
       </c>
       <c r="K8" t="n">
-        <v>1703.932</v>
+        <v>1143.150862068965</v>
       </c>
       <c r="L8" t="n">
-        <v>1157.734</v>
+        <v>1311.571642857143</v>
       </c>
       <c r="M8" t="n">
-        <v>22.03759</v>
+        <v>44.17706071428571</v>
       </c>
       <c r="N8" t="n">
-        <v>9623.481</v>
+        <v>83591.32285714285</v>
       </c>
       <c r="O8" t="n">
-        <v>1020.203</v>
+        <v>388.8550285714286</v>
       </c>
       <c r="P8" t="n">
-        <v>374.0193</v>
+        <v>158.8716642857143</v>
       </c>
       <c r="Q8" t="n">
-        <v>2702.459</v>
+        <v>3683.76207142857</v>
       </c>
       <c r="R8" t="n">
-        <v>284.403</v>
+        <v>344.5567642857143</v>
       </c>
       <c r="S8" t="n">
-        <v>123.7403</v>
+        <v>189.2175142857144</v>
       </c>
       <c r="T8" t="n">
-        <v>1190.454</v>
+        <v>1732.729428571429</v>
       </c>
       <c r="U8" t="n">
-        <v>19940.99</v>
+        <v>285.8865857142857</v>
       </c>
       <c r="V8" t="n">
-        <v>387.6605</v>
+        <v>94.715295</v>
       </c>
       <c r="W8" t="n">
-        <v>131.0556</v>
+        <v>243.338842857143</v>
       </c>
       <c r="X8" t="n">
-        <v>120.0162</v>
+        <v>114.5743142857143</v>
       </c>
       <c r="Y8" t="n">
-        <v>729.3449000000001</v>
+        <v>422.8661285714285</v>
       </c>
       <c r="Z8" t="n">
-        <v>101.4142</v>
+        <v>152.6490285714286</v>
       </c>
       <c r="AA8" t="n">
-        <v>101.477</v>
+        <v>102.2774857142857</v>
       </c>
       <c r="AB8" t="n">
-        <v>538.9761999999999</v>
+        <v>341.0754785714286</v>
       </c>
       <c r="AC8" t="n">
-        <v>503.5011000000001</v>
+        <v>501.601585714286</v>
       </c>
       <c r="AD8" t="n">
-        <v>416.9426999999999</v>
+        <v>420.7775142857142</v>
       </c>
       <c r="AE8" t="n">
-        <v>523.3758</v>
+        <v>565.3761928571424</v>
       </c>
       <c r="AF8" t="n">
-        <v>286793</v>
+        <v>629091.7428571427</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1310,94 +1310,94 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>1103.166</v>
+        <v>3.535164200000002</v>
       </c>
       <c r="D9" t="n">
-        <v>6078053000</v>
+        <v>3305894333.333333</v>
       </c>
       <c r="E9" t="n">
-        <v>8763.24</v>
+        <v>11390.24666666666</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4277452999999999</v>
+        <v>1.669859333333334</v>
       </c>
       <c r="G9" t="n">
-        <v>80.59061</v>
+        <v>69.64682999999997</v>
       </c>
       <c r="H9" t="n">
-        <v>61.71271</v>
+        <v>58.34178333333329</v>
       </c>
       <c r="I9" t="n">
-        <v>434.0616</v>
+        <v>281.5806000000002</v>
       </c>
       <c r="J9" t="n">
-        <v>69.64659</v>
+        <v>39.79826000000002</v>
       </c>
       <c r="K9" t="n">
-        <v>1703.842</v>
+        <v>1138.298586206896</v>
       </c>
       <c r="L9" t="n">
-        <v>1157.733</v>
+        <v>1311.570999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>19.17028</v>
+        <v>41.73072142857146</v>
       </c>
       <c r="N9" t="n">
-        <v>9600.242</v>
+        <v>81428.09142857142</v>
       </c>
       <c r="O9" t="n">
-        <v>1020.19</v>
+        <v>388.8536357142856</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7595</v>
+        <v>158.8543214285714</v>
       </c>
       <c r="Q9" t="n">
-        <v>2691.441</v>
+        <v>3669.595857142857</v>
       </c>
       <c r="R9" t="n">
-        <v>274.857</v>
+        <v>342.9718214285717</v>
       </c>
       <c r="S9" t="n">
-        <v>123.4241</v>
+        <v>184.3908285714286</v>
       </c>
       <c r="T9" t="n">
-        <v>1190.355</v>
+        <v>1732.607714285715</v>
       </c>
       <c r="U9" t="n">
-        <v>19932.24</v>
+        <v>285.8851142857142</v>
       </c>
       <c r="V9" t="n">
-        <v>387.3494</v>
+        <v>94.58200571428574</v>
       </c>
       <c r="W9" t="n">
-        <v>121.1745</v>
+        <v>243.3379999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>119.8705</v>
+        <v>114.3545357142857</v>
       </c>
       <c r="Y9" t="n">
-        <v>721.2268</v>
+        <v>422.700907142857</v>
       </c>
       <c r="Z9" t="n">
-        <v>100.0201</v>
+        <v>131.4397714285715</v>
       </c>
       <c r="AA9" t="n">
-        <v>101.477</v>
+        <v>102.1216285714285</v>
       </c>
       <c r="AB9" t="n">
-        <v>535.9684999999999</v>
+        <v>331.7066642857142</v>
       </c>
       <c r="AC9" t="n">
-        <v>502.6429999999999</v>
+        <v>498.4189642857143</v>
       </c>
       <c r="AD9" t="n">
-        <v>416.7757</v>
+        <v>415.0209428571426</v>
       </c>
       <c r="AE9" t="n">
-        <v>523.2553</v>
+        <v>564.3680428571431</v>
       </c>
       <c r="AF9" t="n">
-        <v>179630</v>
+        <v>352083.4785714286</v>
       </c>
       <c r="AG9" t="n">
         <v>10</v>
@@ -1411,94 +1411,94 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>1103.147</v>
+        <v>3.533912446666671</v>
       </c>
       <c r="D10" t="n">
-        <v>6078053000</v>
+        <v>3305894333.333333</v>
       </c>
       <c r="E10" t="n">
-        <v>6469.924</v>
+        <v>8323.385666666672</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3431189</v>
+        <v>1.604258666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>80.59061</v>
+        <v>69.64682999999997</v>
       </c>
       <c r="H10" t="n">
-        <v>61.44878</v>
+        <v>58.28726999999996</v>
       </c>
       <c r="I10" t="n">
-        <v>434.0616</v>
+        <v>281.5806000000002</v>
       </c>
       <c r="J10" t="n">
-        <v>69.64659</v>
+        <v>39.79826000000002</v>
       </c>
       <c r="K10" t="n">
-        <v>1703.761</v>
+        <v>1137.561586206897</v>
       </c>
       <c r="L10" t="n">
-        <v>1157.733</v>
+        <v>1311.570999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>19.1495</v>
+        <v>41.21219928571428</v>
       </c>
       <c r="N10" t="n">
-        <v>9589.011</v>
+        <v>78806.18142857142</v>
       </c>
       <c r="O10" t="n">
-        <v>1020.168</v>
+        <v>388.85155</v>
       </c>
       <c r="P10" t="n">
-        <v>351.4057</v>
+        <v>158.84785</v>
       </c>
       <c r="Q10" t="n">
-        <v>2677.53</v>
+        <v>3660.782999999999</v>
       </c>
       <c r="R10" t="n">
-        <v>269.772</v>
+        <v>341.62475</v>
       </c>
       <c r="S10" t="n">
-        <v>122.8115</v>
+        <v>182.0782071428572</v>
       </c>
       <c r="T10" t="n">
-        <v>1190.292</v>
+        <v>1732.474571428571</v>
       </c>
       <c r="U10" t="n">
-        <v>19603.99</v>
+        <v>285.8844500000002</v>
       </c>
       <c r="V10" t="n">
-        <v>385.0456</v>
+        <v>94.02439000000003</v>
       </c>
       <c r="W10" t="n">
-        <v>118.2168</v>
+        <v>243.3379999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>119.8036</v>
+        <v>114.2550500000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>708.0099</v>
+        <v>422.6182214285715</v>
       </c>
       <c r="Z10" t="n">
-        <v>100.0016</v>
+        <v>109.4047</v>
       </c>
       <c r="AA10" t="n">
-        <v>101.2494</v>
+        <v>102.1188071428571</v>
       </c>
       <c r="AB10" t="n">
-        <v>534.1550999999999</v>
+        <v>304.8394</v>
       </c>
       <c r="AC10" t="n">
-        <v>502.0236</v>
+        <v>494.0921785714287</v>
       </c>
       <c r="AD10" t="n">
-        <v>416.6555999999999</v>
+        <v>405.3514785714284</v>
       </c>
       <c r="AE10" t="n">
-        <v>521.9976</v>
+        <v>560.2375357142862</v>
       </c>
       <c r="AF10" t="n">
-        <v>127945.9</v>
+        <v>211007.9285714286</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
@@ -1512,94 +1512,94 @@
         <v>60</v>
       </c>
       <c r="C11" t="n">
-        <v>1103.124</v>
+        <v>3.533309733333337</v>
       </c>
       <c r="D11" t="n">
-        <v>6078053000</v>
+        <v>3305894333.333333</v>
       </c>
       <c r="E11" t="n">
-        <v>4936.684</v>
+        <v>4814.805666666668</v>
       </c>
       <c r="F11" t="n">
-        <v>0.240053</v>
+        <v>1.490651333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>80.59061</v>
+        <v>69.64682999999997</v>
       </c>
       <c r="H11" t="n">
-        <v>61.22613</v>
+        <v>58.2417933333333</v>
       </c>
       <c r="I11" t="n">
-        <v>434.0616</v>
+        <v>281.5806000000002</v>
       </c>
       <c r="J11" t="n">
-        <v>69.64659</v>
+        <v>39.79826000000002</v>
       </c>
       <c r="K11" t="n">
-        <v>1703.692</v>
+        <v>1137.378793103448</v>
       </c>
       <c r="L11" t="n">
-        <v>1157.733</v>
+        <v>1311.570999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>18.91036</v>
+        <v>40.67301285714284</v>
       </c>
       <c r="N11" t="n">
-        <v>9570.441999999999</v>
+        <v>75395.54928571428</v>
       </c>
       <c r="O11" t="n">
-        <v>1020.158</v>
+        <v>388.8478428571428</v>
       </c>
       <c r="P11" t="n">
-        <v>324.6287</v>
+        <v>158.8436428571427</v>
       </c>
       <c r="Q11" t="n">
-        <v>2611.203</v>
+        <v>3626.258928571428</v>
       </c>
       <c r="R11" t="n">
-        <v>265.3174</v>
+        <v>340.0696285714286</v>
       </c>
       <c r="S11" t="n">
-        <v>122.5969</v>
+        <v>176.2187857142856</v>
       </c>
       <c r="T11" t="n">
-        <v>1190.215</v>
+        <v>1732.297142857143</v>
       </c>
       <c r="U11" t="n">
-        <v>19036.34</v>
+        <v>285.8822285714287</v>
       </c>
       <c r="V11" t="n">
-        <v>382.6778</v>
+        <v>93.93790285714279</v>
       </c>
       <c r="W11" t="n">
-        <v>114.3816</v>
+        <v>243.3379999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>119.7568</v>
+        <v>114.1336428571428</v>
       </c>
       <c r="Y11" t="n">
-        <v>705.4825</v>
+        <v>422.5873857142857</v>
       </c>
       <c r="Z11" t="n">
-        <v>100.0002</v>
+        <v>100.2422571428571</v>
       </c>
       <c r="AA11" t="n">
-        <v>101.2268</v>
+        <v>101.7028142857142</v>
       </c>
       <c r="AB11" t="n">
-        <v>533.5568</v>
+        <v>247.1103357142859</v>
       </c>
       <c r="AC11" t="n">
-        <v>501.7503</v>
+        <v>490.146757142857</v>
       </c>
       <c r="AD11" t="n">
-        <v>416.4466</v>
+        <v>385.4364214285715</v>
       </c>
       <c r="AE11" t="n">
-        <v>521.8528</v>
+        <v>556.3920500000004</v>
       </c>
       <c r="AF11" t="n">
-        <v>103271.5</v>
+        <v>111557.4357142857</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
@@ -1613,94 +1613,94 @@
         <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>1103.102</v>
+        <v>3.533186966666665</v>
       </c>
       <c r="D12" t="n">
-        <v>6078053000</v>
+        <v>2280965500</v>
       </c>
       <c r="E12" t="n">
-        <v>3235.508</v>
+        <v>1236.729999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1769591</v>
+        <v>1.400224666666666</v>
       </c>
       <c r="G12" t="n">
-        <v>80.59061</v>
+        <v>66.52097666666663</v>
       </c>
       <c r="H12" t="n">
-        <v>61.03959</v>
+        <v>53.78430666666667</v>
       </c>
       <c r="I12" t="n">
-        <v>434.0616</v>
+        <v>263.4267000000002</v>
       </c>
       <c r="J12" t="n">
-        <v>69.64659</v>
+        <v>38.87439448275864</v>
       </c>
       <c r="K12" t="n">
-        <v>1703.575</v>
+        <v>1029.179821428571</v>
       </c>
       <c r="L12" t="n">
-        <v>1157.733</v>
+        <v>1306.506</v>
       </c>
       <c r="M12" t="n">
-        <v>18.66042</v>
+        <v>28.26805785714286</v>
       </c>
       <c r="N12" t="n">
-        <v>9552.607</v>
+        <v>43518.54214285715</v>
       </c>
       <c r="O12" t="n">
-        <v>1020.145</v>
+        <v>351.0093000000001</v>
       </c>
       <c r="P12" t="n">
-        <v>324.6061</v>
+        <v>132.3319178571429</v>
       </c>
       <c r="Q12" t="n">
-        <v>2575.439</v>
+        <v>2408.760714285715</v>
       </c>
       <c r="R12" t="n">
-        <v>262.56</v>
+        <v>335.3218357142859</v>
       </c>
       <c r="S12" t="n">
-        <v>122.5969</v>
+        <v>148.4659928571428</v>
       </c>
       <c r="T12" t="n">
-        <v>1190.075</v>
+        <v>1276.150857142857</v>
       </c>
       <c r="U12" t="n">
-        <v>18635.25</v>
+        <v>203.605575</v>
       </c>
       <c r="V12" t="n">
-        <v>382.5003</v>
+        <v>93.91253500000001</v>
       </c>
       <c r="W12" t="n">
-        <v>111.931</v>
+        <v>231.1986071428571</v>
       </c>
       <c r="X12" t="n">
-        <v>119.7117</v>
+        <v>113.10305</v>
       </c>
       <c r="Y12" t="n">
-        <v>705.2203</v>
+        <v>407.5419285714287</v>
       </c>
       <c r="Z12" t="n">
-        <v>100.0001</v>
+        <v>100.0139642857143</v>
       </c>
       <c r="AA12" t="n">
-        <v>101.2228</v>
+        <v>101.6764928571428</v>
       </c>
       <c r="AB12" t="n">
-        <v>533.1077</v>
+        <v>245.738907142857</v>
       </c>
       <c r="AC12" t="n">
-        <v>501.4997</v>
+        <v>485.5246857142853</v>
       </c>
       <c r="AD12" t="n">
-        <v>416.3747999999999</v>
+        <v>324.0003571428573</v>
       </c>
       <c r="AE12" t="n">
-        <v>516.362</v>
+        <v>476.2528785714288</v>
       </c>
       <c r="AF12" t="n">
-        <v>78443.19</v>
+        <v>66194.65357142854</v>
       </c>
       <c r="AG12" t="n">
         <v>10</v>
@@ -1714,94 +1714,94 @@
         <v>80</v>
       </c>
       <c r="C13" t="n">
-        <v>1103.08</v>
+        <v>3.533080193333336</v>
       </c>
       <c r="D13" t="n">
-        <v>6078053000</v>
+        <v>190885433.3333333</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05950124999999999</v>
+        <v>537.5613000000003</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1368302</v>
+        <v>0.6803539333333338</v>
       </c>
       <c r="G13" t="n">
-        <v>80.59061</v>
+        <v>61.5034533333333</v>
       </c>
       <c r="H13" t="n">
-        <v>60.72072000000001</v>
+        <v>51.62427999999998</v>
       </c>
       <c r="I13" t="n">
-        <v>434.0616</v>
+        <v>232.4321172413794</v>
       </c>
       <c r="J13" t="n">
-        <v>69.64659</v>
+        <v>38.08282206896553</v>
       </c>
       <c r="K13" t="n">
-        <v>1703.528</v>
+        <v>956.4443214285715</v>
       </c>
       <c r="L13" t="n">
-        <v>1157.733</v>
+        <v>1183.60625</v>
       </c>
       <c r="M13" t="n">
-        <v>18.63271</v>
+        <v>28.18332714285713</v>
       </c>
       <c r="N13" t="n">
-        <v>9526.242</v>
+        <v>6186.891071428573</v>
       </c>
       <c r="O13" t="n">
-        <v>1020.131</v>
+        <v>217.7013357142857</v>
       </c>
       <c r="P13" t="n">
-        <v>324.561</v>
+        <v>119.0274928571429</v>
       </c>
       <c r="Q13" t="n">
-        <v>2551.125</v>
+        <v>2242.787250000001</v>
       </c>
       <c r="R13" t="n">
-        <v>260.4413</v>
+        <v>321.3350642857144</v>
       </c>
       <c r="S13" t="n">
-        <v>122.5823</v>
+        <v>124.7217000000001</v>
       </c>
       <c r="T13" t="n">
-        <v>1189.959</v>
+        <v>756.0042142857141</v>
       </c>
       <c r="U13" t="n">
-        <v>18485.65</v>
+        <v>154.5785749999999</v>
       </c>
       <c r="V13" t="n">
-        <v>382.06</v>
+        <v>92.74635285714284</v>
       </c>
       <c r="W13" t="n">
-        <v>109.4767</v>
+        <v>201.7905357142857</v>
       </c>
       <c r="X13" t="n">
-        <v>119.6747</v>
+        <v>79.88762714285721</v>
       </c>
       <c r="Y13" t="n">
-        <v>705.0751</v>
+        <v>380.4165642857143</v>
       </c>
       <c r="Z13" t="n">
-        <v>100</v>
+        <v>100.0001</v>
       </c>
       <c r="AA13" t="n">
-        <v>100.4389</v>
+        <v>101.6764928571428</v>
       </c>
       <c r="AB13" t="n">
-        <v>532.9644</v>
+        <v>210.0253142857144</v>
       </c>
       <c r="AC13" t="n">
-        <v>501.4063</v>
+        <v>485.3387500000002</v>
       </c>
       <c r="AD13" t="n">
-        <v>416.3194999999999</v>
+        <v>300.0196142857141</v>
       </c>
       <c r="AE13" t="n">
-        <v>512.5642</v>
+        <v>457.5233999999997</v>
       </c>
       <c r="AF13" t="n">
-        <v>56767.92</v>
+        <v>10264.55428571429</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
@@ -1815,94 +1815,94 @@
         <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>1103.052</v>
+        <v>3.533063526666671</v>
       </c>
       <c r="D14" t="n">
-        <v>6078053000</v>
+        <v>38514378.66666666</v>
       </c>
       <c r="E14" t="n">
-        <v>3.973446e-08</v>
+        <v>106.9579300000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.10663</v>
+        <v>0.5629016000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>80.59061</v>
+        <v>52.40450333333334</v>
       </c>
       <c r="H14" t="n">
-        <v>60.5321</v>
+        <v>39.57367666666666</v>
       </c>
       <c r="I14" t="n">
-        <v>434.0616</v>
+        <v>231.9879103448277</v>
       </c>
       <c r="J14" t="n">
-        <v>69.64659</v>
+        <v>29.03426896551724</v>
       </c>
       <c r="K14" t="n">
-        <v>1703.464</v>
+        <v>737.643657142857</v>
       </c>
       <c r="L14" t="n">
-        <v>1157.733</v>
+        <v>1076.154392857143</v>
       </c>
       <c r="M14" t="n">
-        <v>18.62995</v>
+        <v>18.62656214285713</v>
       </c>
       <c r="N14" t="n">
-        <v>9469.177</v>
+        <v>5360.076714285713</v>
       </c>
       <c r="O14" t="n">
-        <v>1020.072</v>
+        <v>194.0194785714286</v>
       </c>
       <c r="P14" t="n">
-        <v>324.5437</v>
+        <v>87.536125</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.194</v>
+        <v>398.0968428571431</v>
       </c>
       <c r="R14" t="n">
-        <v>258.877</v>
+        <v>298.9001785714287</v>
       </c>
       <c r="S14" t="n">
-        <v>122.1813</v>
+        <v>85.0628007142857</v>
       </c>
       <c r="T14" t="n">
-        <v>1189.872</v>
+        <v>751.6415000000004</v>
       </c>
       <c r="U14" t="n">
-        <v>18141.08</v>
+        <v>46.20055928571428</v>
       </c>
       <c r="V14" t="n">
-        <v>381.9468</v>
+        <v>77.02120571428574</v>
       </c>
       <c r="W14" t="n">
-        <v>107.5234</v>
+        <v>172.7678357142857</v>
       </c>
       <c r="X14" t="n">
-        <v>119.6513</v>
+        <v>74.0170478571429</v>
       </c>
       <c r="Y14" t="n">
-        <v>704.9827</v>
+        <v>360.1115571428572</v>
       </c>
       <c r="Z14" t="n">
         <v>100</v>
       </c>
       <c r="AA14" t="n">
-        <v>100.4389</v>
+        <v>101.6764928571428</v>
       </c>
       <c r="AB14" t="n">
-        <v>532.8964</v>
+        <v>200.0334357142858</v>
       </c>
       <c r="AC14" t="n">
-        <v>500.7488999999999</v>
+        <v>478.3009071428572</v>
       </c>
       <c r="AD14" t="n">
-        <v>416.2251</v>
+        <v>300.0001000000001</v>
       </c>
       <c r="AE14" t="n">
-        <v>511.5331</v>
+        <v>451.5975142857143</v>
       </c>
       <c r="AF14" t="n">
-        <v>42226.95</v>
+        <v>9805.634285714286</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -1916,94 +1916,94 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>1103.031</v>
+        <v>3.533063526666671</v>
       </c>
       <c r="D15" t="n">
-        <v>6078053000</v>
+        <v>38453675.33333334</v>
       </c>
       <c r="E15" t="n">
-        <v>7.774473999999999e-10</v>
+        <v>5.659685999999998</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08573834</v>
+        <v>0.5362875333333329</v>
       </c>
       <c r="G15" t="n">
-        <v>80.59061</v>
+        <v>51.07444</v>
       </c>
       <c r="H15" t="n">
-        <v>60.25238</v>
+        <v>30.92068666666668</v>
       </c>
       <c r="I15" t="n">
-        <v>434.0616</v>
+        <v>208.1220103448275</v>
       </c>
       <c r="J15" t="n">
-        <v>69.64659</v>
+        <v>18.02332620689657</v>
       </c>
       <c r="K15" t="n">
-        <v>1703.389</v>
+        <v>498.6517928571427</v>
       </c>
       <c r="L15" t="n">
-        <v>1157.733</v>
+        <v>948.2546785714281</v>
       </c>
       <c r="M15" t="n">
-        <v>18.6299</v>
+        <v>18.57193428571428</v>
       </c>
       <c r="N15" t="n">
-        <v>9439.441999999999</v>
+        <v>5215.641857142857</v>
       </c>
       <c r="O15" t="n">
-        <v>1020.06</v>
+        <v>194.0156142857143</v>
       </c>
       <c r="P15" t="n">
-        <v>324.0643</v>
+        <v>86.27937500000003</v>
       </c>
       <c r="Q15" t="n">
-        <v>2531.477</v>
+        <v>330.841492857143</v>
       </c>
       <c r="R15" t="n">
-        <v>257.7791</v>
+        <v>297.7397214285712</v>
       </c>
       <c r="S15" t="n">
-        <v>122.1798</v>
+        <v>70.3388492857143</v>
       </c>
       <c r="T15" t="n">
-        <v>1189.735</v>
+        <v>461.4882642857143</v>
       </c>
       <c r="U15" t="n">
-        <v>17500.29</v>
+        <v>45.30735785714287</v>
       </c>
       <c r="V15" t="n">
-        <v>376.8015</v>
+        <v>71.2978621428571</v>
       </c>
       <c r="W15" t="n">
-        <v>106.4521</v>
+        <v>119.6742214285715</v>
       </c>
       <c r="X15" t="n">
-        <v>119.6286</v>
+        <v>73.3730035714286</v>
       </c>
       <c r="Y15" t="n">
-        <v>704.9172</v>
+        <v>347.5057857142857</v>
       </c>
       <c r="Z15" t="n">
         <v>100</v>
       </c>
       <c r="AA15" t="n">
-        <v>100.4385</v>
+        <v>101.6746642857142</v>
       </c>
       <c r="AB15" t="n">
-        <v>532.8531</v>
+        <v>200.0034857142856</v>
       </c>
       <c r="AC15" t="n">
-        <v>500.6023999999999</v>
+        <v>463.8418428571431</v>
       </c>
       <c r="AD15" t="n">
-        <v>416.1295</v>
+        <v>300.0000642857144</v>
       </c>
       <c r="AE15" t="n">
-        <v>511.5280000000001</v>
+        <v>397.3106999999998</v>
       </c>
       <c r="AF15" t="n">
-        <v>16424.48</v>
+        <v>2675.542428571429</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
